--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="13360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="275_-45" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marie Gosme</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.1194 but it did not allow sowing the crops when starting in november</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
@@ -116,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +191,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1076,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1502,6 +1549,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95889638-7699-4755-9E99-B89D5C5F6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="13360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="275_-45" sheetId="1" r:id="rId1"/>
     <sheet name="325_-35" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marie Gosme</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -365,6 +380,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -689,16 +712,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +741,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -738,7 +761,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -766,7 +789,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -798,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
@@ -836,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -880,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -924,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -968,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>3</v>
       </c>
@@ -986,7 +1009,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -1004,7 +1027,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>5</v>
       </c>
@@ -1022,7 +1045,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -1040,7 +1063,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -1058,7 +1081,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -1076,7 +1099,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -1094,7 +1117,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1">
+    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <v>10</v>
       </c>
@@ -1123,16 +1146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1175,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1195,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1223,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1232,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
@@ -1270,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1358,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -1402,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>3</v>
       </c>
@@ -1420,7 +1443,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -1438,7 +1461,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>5</v>
       </c>
@@ -1456,7 +1479,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -1474,7 +1497,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -1492,7 +1515,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -1510,7 +1533,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -1528,7 +1551,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1">
+    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <v>10</v>
       </c>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95889638-7699-4755-9E99-B89D5C5F6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC181A-4689-4260-8A2A-B41AB49E6EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Code</t>
   </si>
@@ -159,13 +159,19 @@
   </si>
   <si>
     <t>VPDF</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mm.mm-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +225,12 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -310,7 +322,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +378,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1150,7 +1165,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1257,17 +1272,21 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1570,9 +1589,10 @@
       <c r="N16" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC181A-4689-4260-8A2A-B41AB49E6EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95889638-7699-4755-9E99-B89D5C5F6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Code</t>
   </si>
@@ -159,19 +159,13 @@
   </si>
   <si>
     <t>VPDF</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>mm.mm-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,12 +219,6 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,7 +310,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +366,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1165,7 +1150,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1272,21 +1257,17 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
-      <c r="B5" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1589,10 +1570,9 @@
       <c r="N16" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95889638-7699-4755-9E99-B89D5C5F6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA0FC9-FAAF-4F68-A0D7-175AA12E4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="275_-45" sheetId="1" r:id="rId1"/>
     <sheet name="325_-35" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Code</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>VPDF</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mm.mm-1</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1150,7 +1159,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1257,17 +1266,21 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1571,8 +1584,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC181A-4689-4260-8A2A-B41AB49E6EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA0FC9-FAAF-4F68-A0D7-175AA12E4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="275_-45" sheetId="1" r:id="rId1"/>
     <sheet name="325_-35" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,12 +225,6 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1165,7 +1159,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1589,7 +1583,6 @@
       <c r="N16" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/input/soils.xlsx
+++ b/input/soils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA0FC9-FAAF-4F68-A0D7-175AA12E4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7DFFA-94D5-48F0-9891-C647429C3D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="275_-45" sheetId="1" r:id="rId1"/>
     <sheet name="325_-35" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Code</t>
   </si>
@@ -95,9 +95,6 @@
     <t>ppm</t>
   </si>
   <si>
-    <t>cm.cm-1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -165,13 +162,25 @@
   </si>
   <si>
     <t>mm.mm-1</t>
+  </si>
+  <si>
+    <t>RESW</t>
+  </si>
+  <si>
+    <t>NRESCON</t>
+  </si>
+  <si>
+    <t>kg m-2</t>
+  </si>
+  <si>
+    <t>g N kg-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +234,12 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -344,9 +359,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,9 +765,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7">
@@ -770,7 +785,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -798,7 +813,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -814,7 +829,7 @@
       <c r="E4" s="4">
         <v>61</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>0.65</v>
       </c>
       <c r="G4" s="4"/>
@@ -830,90 +845,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="O6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="8">
@@ -952,12 +983,18 @@
       <c r="M7" s="8">
         <v>29.464879764280962</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="O7" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="8">
@@ -996,12 +1033,18 @@
       <c r="M8" s="8">
         <v>6.3904349618635328</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="O8" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
@@ -1016,10 +1059,10 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
         <v>4</v>
       </c>
       <c r="B10" s="8"/>
@@ -1034,10 +1077,10 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
@@ -1052,10 +1095,10 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
         <v>6</v>
       </c>
       <c r="B12" s="8"/>
@@ -1070,10 +1113,10 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
         <v>7</v>
       </c>
       <c r="B13" s="8"/>
@@ -1088,10 +1131,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>8</v>
       </c>
       <c r="B14" s="8"/>
@@ -1106,10 +1149,10 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>9</v>
       </c>
       <c r="B15" s="8"/>
@@ -1124,25 +1167,25 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1156,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,9 +1227,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7">
@@ -1204,7 +1247,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1220,8 +1263,8 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>29</v>
+      <c r="F3" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -1232,7 +1275,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1248,7 +1291,7 @@
       <c r="E4" s="4">
         <v>81</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>0.65</v>
       </c>
       <c r="G4" s="4"/>
@@ -1264,94 +1307,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="P6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="8">
@@ -1390,12 +1445,18 @@
       <c r="M7" s="8">
         <v>35.147392290249435</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="O7" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="8">
@@ -1434,12 +1495,18 @@
       <c r="M8" s="8">
         <v>7.7531012404961972</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="O8" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
@@ -1454,10 +1521,10 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
         <v>4</v>
       </c>
       <c r="B10" s="8"/>
@@ -1472,10 +1539,10 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
@@ -1490,10 +1557,10 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
         <v>6</v>
       </c>
       <c r="B12" s="8"/>
@@ -1508,10 +1575,10 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
         <v>7</v>
       </c>
       <c r="B13" s="8"/>
@@ -1526,10 +1593,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>8</v>
       </c>
       <c r="B14" s="8"/>
@@ -1544,10 +1611,10 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>9</v>
       </c>
       <c r="B15" s="8"/>
@@ -1562,27 +1629,28 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
